--- a/teaching/traditional_assets/database/data/australia/australia_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/australia/australia_insurance_prop_cas.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0382</v>
+        <v>-0.0378</v>
       </c>
       <c r="E2">
-        <v>-0.13745</v>
+        <v>-0.0701</v>
       </c>
       <c r="F2">
-        <v>0.0501</v>
+        <v>0.0687</v>
       </c>
       <c r="G2">
-        <v>0.14795725396618</v>
+        <v>0.1132008688556962</v>
       </c>
       <c r="H2">
-        <v>0.14795725396618</v>
+        <v>0.1132008688556962</v>
       </c>
       <c r="I2">
-        <v>0.1443661540360476</v>
+        <v>0.05585341227053751</v>
       </c>
       <c r="J2">
-        <v>0.1090453179563098</v>
+        <v>0.04861788949090276</v>
       </c>
       <c r="K2">
-        <v>1372.2</v>
+        <v>305.7</v>
       </c>
       <c r="L2">
-        <v>0.04718155373855876</v>
+        <v>0.01138975927630133</v>
       </c>
       <c r="M2">
-        <v>2256.7</v>
+        <v>1608.8</v>
       </c>
       <c r="N2">
-        <v>0.063537334906258</v>
+        <v>0.0573189632136813</v>
       </c>
       <c r="O2">
-        <v>1.644585337414371</v>
+        <v>5.262675825973177</v>
       </c>
       <c r="P2">
-        <v>1570.7</v>
+        <v>1513.8</v>
       </c>
       <c r="Q2">
-        <v>0.04422302119788162</v>
+        <v>0.05393426560969092</v>
       </c>
       <c r="R2">
-        <v>1.144658213088471</v>
+        <v>4.951913640824338</v>
       </c>
       <c r="S2">
-        <v>686</v>
+        <v>95</v>
       </c>
       <c r="T2">
-        <v>0.3039836930030576</v>
+        <v>0.05905022376926902</v>
       </c>
       <c r="U2">
-        <v>2884.5</v>
+        <v>3536.8</v>
       </c>
       <c r="V2">
-        <v>0.08121302899681004</v>
+        <v>0.1260105103767703</v>
       </c>
       <c r="W2">
-        <v>0.05692926969522714</v>
+        <v>0.0668774914816382</v>
       </c>
       <c r="X2">
-        <v>0.05057677724676099</v>
+        <v>0.0476326950273929</v>
       </c>
       <c r="Y2">
-        <v>0.006352492448466154</v>
+        <v>0.0192447964542453</v>
       </c>
       <c r="Z2">
-        <v>0.7292635476186385</v>
+        <v>0.7413231175460014</v>
       </c>
       <c r="AA2">
-        <v>0.08538662253794735</v>
+        <v>0.0432295483060257</v>
       </c>
       <c r="AB2">
-        <v>0.04418962754202059</v>
+        <v>0.03945195722570763</v>
       </c>
       <c r="AC2">
-        <v>0.04119699499592676</v>
+        <v>0.005427343788318884</v>
       </c>
       <c r="AD2">
-        <v>22363.8</v>
+        <v>21225.4</v>
       </c>
       <c r="AE2">
-        <v>1066.206978540069</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>23430.00697854007</v>
+        <v>21225.4</v>
       </c>
       <c r="AG2">
-        <v>20545.50697854007</v>
+        <v>17688.6</v>
       </c>
       <c r="AH2">
-        <v>0.3974710498420197</v>
+        <v>0.4305975099862252</v>
       </c>
       <c r="AI2">
-        <v>0.5105243259647362</v>
+        <v>0.4924184074015646</v>
       </c>
       <c r="AJ2">
-        <v>0.3664704194750133</v>
+        <v>0.3865845209709743</v>
       </c>
       <c r="AK2">
-        <v>0.4776968726656507</v>
+        <v>0.4470475843872259</v>
       </c>
       <c r="AL2">
-        <v>1361.5</v>
+        <v>1006.2</v>
       </c>
       <c r="AM2">
-        <v>1361.5</v>
+        <v>1006.2</v>
       </c>
       <c r="AN2">
-        <v>4.766266703608193</v>
+        <v>12.35255776057731</v>
       </c>
       <c r="AO2">
-        <v>3.121483657730444</v>
+        <v>1.489862850327967</v>
       </c>
       <c r="AP2">
-        <v>4.378744480838018</v>
+        <v>10.29424431123785</v>
       </c>
       <c r="AQ2">
-        <v>3.121483657730444</v>
+        <v>1.489862850327967</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0382</v>
+        <v>-0.0828</v>
       </c>
       <c r="E3">
-        <v>-0.0269</v>
+        <v>-0.09789999999999999</v>
       </c>
       <c r="F3">
-        <v>0.0397</v>
+        <v>-0.0467</v>
       </c>
       <c r="G3">
-        <v>0.1930645131821753</v>
+        <v>0.09171164302481892</v>
       </c>
       <c r="H3">
-        <v>0.1930645131821753</v>
+        <v>0.09171164302481892</v>
       </c>
       <c r="I3">
-        <v>0.1727582551399665</v>
+        <v>0.0802150839670151</v>
       </c>
       <c r="J3">
-        <v>0.1258601474779702</v>
+        <v>0.07476917171685833</v>
       </c>
       <c r="K3">
-        <v>754.5</v>
+        <v>300.3</v>
       </c>
       <c r="L3">
-        <v>0.1378510222352146</v>
+        <v>0.06025160008828073</v>
       </c>
       <c r="M3">
-        <v>851.9</v>
+        <v>478.5</v>
       </c>
       <c r="N3">
-        <v>0.06935997329490405</v>
+        <v>0.05441086170430511</v>
       </c>
       <c r="O3">
-        <v>1.12909211398277</v>
+        <v>1.593406593406593</v>
       </c>
       <c r="P3">
-        <v>525.9</v>
+        <v>478.5</v>
       </c>
       <c r="Q3">
-        <v>0.04281771329474121</v>
+        <v>0.05441086170430511</v>
       </c>
       <c r="R3">
-        <v>0.6970178926441352</v>
+        <v>1.593406593406593</v>
       </c>
       <c r="S3">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.3826740227726259</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1163.2</v>
+        <v>1586.6</v>
       </c>
       <c r="V3">
-        <v>0.09470538905579574</v>
+        <v>0.1804143640126447</v>
       </c>
       <c r="W3">
-        <v>0.1529588257952035</v>
+        <v>0.0668774914816382</v>
       </c>
       <c r="X3">
-        <v>0.04821693405240748</v>
+        <v>0.04390589336435248</v>
       </c>
       <c r="Y3">
-        <v>0.104741891742796</v>
+        <v>0.02297159811728572</v>
       </c>
       <c r="Z3">
-        <v>1.420599064076223</v>
+        <v>1.794067888124977</v>
       </c>
       <c r="AA3">
-        <v>0.1787968077116999</v>
+        <v>0.1341409699989178</v>
       </c>
       <c r="AB3">
-        <v>0.04432628076129939</v>
+        <v>0.03945195722570763</v>
       </c>
       <c r="AC3">
-        <v>0.1344705269504005</v>
+        <v>0.09468901277321018</v>
       </c>
       <c r="AD3">
-        <v>1458.4</v>
+        <v>1505.8</v>
       </c>
       <c r="AE3">
-        <v>485.2112107121073</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1943.611210712108</v>
+        <v>1505.8</v>
       </c>
       <c r="AG3">
-        <v>780.4112107121075</v>
+        <v>-80.79999999999995</v>
       </c>
       <c r="AH3">
-        <v>0.1366247252582716</v>
+        <v>0.1461941747572816</v>
       </c>
       <c r="AI3">
-        <v>0.2849781554652429</v>
+        <v>0.2460256514990605</v>
       </c>
       <c r="AJ3">
-        <v>0.05974343290021825</v>
+        <v>-0.009273073656666736</v>
       </c>
       <c r="AK3">
-        <v>0.1379546869616101</v>
+        <v>-0.01782130174904607</v>
       </c>
       <c r="AL3">
-        <v>65.90000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="AM3">
-        <v>65.90000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="AN3">
-        <v>1.295894792962502</v>
+        <v>3.294246335593962</v>
       </c>
       <c r="AO3">
-        <v>14.77845220030349</v>
+        <v>6.296062992125984</v>
       </c>
       <c r="AP3">
-        <v>0.6934522931509751</v>
+        <v>-0.1767665718661123</v>
       </c>
       <c r="AQ3">
-        <v>14.77845220030349</v>
+        <v>6.296062992125984</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +856,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>QBE Insurance Group Limited (ASX:QBE)</t>
+          <t>Suncorp Group Limited (ASX:SUN)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -865,121 +865,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0434</v>
+        <v>-0.0245</v>
+      </c>
+      <c r="E4">
+        <v>-0.0423</v>
       </c>
       <c r="F4">
-        <v>0.156</v>
+        <v>0.0832</v>
       </c>
       <c r="G4">
-        <v>0.08425196850393701</v>
+        <v>0.1458496783304566</v>
       </c>
       <c r="H4">
-        <v>0.08425196850393701</v>
+        <v>0.1458496783304566</v>
       </c>
       <c r="I4">
-        <v>0.0920472440944882</v>
+        <v>0.1394849364506512</v>
       </c>
       <c r="J4">
-        <v>0.07657230268383326</v>
+        <v>0.09474608842063728</v>
       </c>
       <c r="K4">
-        <v>495</v>
+        <v>630.4</v>
       </c>
       <c r="L4">
-        <v>0.03897637795275591</v>
+        <v>0.06182331711909619</v>
       </c>
       <c r="M4">
-        <v>806</v>
+        <v>619.3</v>
       </c>
       <c r="N4">
-        <v>0.06828656635488681</v>
+        <v>0.06455143372351181</v>
       </c>
       <c r="O4">
-        <v>1.628282828282828</v>
+        <v>0.9823921319796954</v>
       </c>
       <c r="P4">
-        <v>446</v>
+        <v>619.3</v>
       </c>
       <c r="Q4">
-        <v>0.03778636302019791</v>
+        <v>0.06455143372351181</v>
       </c>
       <c r="R4">
-        <v>0.901010101010101</v>
+        <v>0.9823921319796954</v>
       </c>
       <c r="S4">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.4466501240694789</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>678</v>
+        <v>1012.2</v>
       </c>
       <c r="V4">
-        <v>0.05744204961366409</v>
+        <v>0.1055045393427074</v>
       </c>
       <c r="W4">
-        <v>0.05692926969522714</v>
+        <v>0.06856347341860262</v>
       </c>
       <c r="X4">
-        <v>0.05057677724676099</v>
+        <v>0.07716701052780199</v>
       </c>
       <c r="Y4">
-        <v>0.006352492448466154</v>
+        <v>-0.008603537109199366</v>
       </c>
       <c r="Z4">
-        <v>1.115111072087102</v>
+        <v>0.4562673670927989</v>
       </c>
       <c r="AA4">
-        <v>0.08538662253794735</v>
+        <v>0.0432295483060257</v>
       </c>
       <c r="AB4">
-        <v>0.04418962754202059</v>
+        <v>0.03780220451770681</v>
       </c>
       <c r="AC4">
-        <v>0.04119699499592676</v>
+        <v>0.005427343788318884</v>
       </c>
       <c r="AD4">
-        <v>3391</v>
+        <v>16394.6</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>3391</v>
+        <v>16394.6</v>
       </c>
       <c r="AG4">
-        <v>2713</v>
+        <v>15382.4</v>
       </c>
       <c r="AH4">
-        <v>0.2231772650090166</v>
+        <v>0.6308405640956576</v>
       </c>
       <c r="AI4">
-        <v>0.2881053525913339</v>
+        <v>0.6500402444004774</v>
       </c>
       <c r="AJ4">
-        <v>0.1868946418484176</v>
+        <v>0.6158798541016884</v>
       </c>
       <c r="AK4">
-        <v>0.244590695997115</v>
+        <v>0.6354079318592076</v>
       </c>
       <c r="AL4">
-        <v>267</v>
+        <v>689.7</v>
       </c>
       <c r="AM4">
-        <v>267</v>
+        <v>689.7</v>
       </c>
       <c r="AN4">
-        <v>2.61449498843485</v>
+        <v>11.02380311995696</v>
       </c>
       <c r="AO4">
-        <v>4.378277153558052</v>
+        <v>2.062200956937799</v>
       </c>
       <c r="AP4">
-        <v>2.091750192752506</v>
+        <v>10.34319526627219</v>
       </c>
       <c r="AQ4">
-        <v>4.378277153558052</v>
+        <v>2.062200956937799</v>
       </c>
     </row>
     <row r="5">
@@ -990,7 +993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Suncorp Group Limited (ASX:SUN)</t>
+          <t>QBE Insurance Group Limited (ASX:QBE)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -999,124 +1002,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.009939999999999999</v>
-      </c>
-      <c r="E5">
-        <v>-0.248</v>
+        <v>-0.0378</v>
       </c>
       <c r="F5">
-        <v>0.0501</v>
+        <v>0.0687</v>
       </c>
       <c r="G5">
-        <v>0.1994848809818425</v>
+        <v>0.0938330903164937</v>
       </c>
       <c r="H5">
-        <v>0.1994848809818425</v>
+        <v>0.0938330903164937</v>
       </c>
       <c r="I5">
-        <v>0.1910249077858505</v>
+        <v>-0.02770391971867227</v>
       </c>
       <c r="J5">
-        <v>0.1347875179317537</v>
+        <v>-0.02770391971867227</v>
       </c>
       <c r="K5">
-        <v>122.7</v>
+        <v>-625</v>
       </c>
       <c r="L5">
-        <v>0.01124645970247752</v>
+        <v>-0.05360665580238443</v>
       </c>
       <c r="M5">
-        <v>598.8</v>
+        <v>511</v>
       </c>
       <c r="N5">
-        <v>0.05237836986756704</v>
+        <v>0.05279252846250801</v>
       </c>
       <c r="O5">
-        <v>4.880195599022004</v>
+        <v>-0.8176</v>
       </c>
       <c r="P5">
-        <v>598.8</v>
+        <v>416</v>
       </c>
       <c r="Q5">
-        <v>0.05237836986756704</v>
+        <v>0.04297787052916503</v>
       </c>
       <c r="R5">
-        <v>4.880195599022004</v>
+        <v>-0.6656</v>
       </c>
       <c r="S5">
+        <v>95</v>
+      </c>
+      <c r="T5">
+        <v>0.1859099804305284</v>
+      </c>
+      <c r="U5">
+        <v>938</v>
+      </c>
+      <c r="V5">
+        <v>0.09690683306816539</v>
+      </c>
+      <c r="W5">
+        <v>-0.07470714797991872</v>
+      </c>
+      <c r="X5">
+        <v>0.0476326950273929</v>
+      </c>
+      <c r="Y5">
+        <v>-0.1223398430073116</v>
+      </c>
+      <c r="Z5">
+        <v>1.052351295243253</v>
+      </c>
+      <c r="AA5">
+        <v>-0.02915425579925986</v>
+      </c>
+      <c r="AB5">
+        <v>0.03950471638636427</v>
+      </c>
+      <c r="AC5">
+        <v>-0.06865897218562413</v>
+      </c>
+      <c r="AD5">
+        <v>3325</v>
+      </c>
+      <c r="AE5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>1043.3</v>
-      </c>
-      <c r="V5">
-        <v>0.09125977502143069</v>
-      </c>
-      <c r="W5">
-        <v>0.01188067043000862</v>
-      </c>
-      <c r="X5">
-        <v>0.07426753277587532</v>
-      </c>
-      <c r="Y5">
-        <v>-0.0623868623458667</v>
-      </c>
-      <c r="Z5">
-        <v>0.4428034707196592</v>
-      </c>
-      <c r="AA5">
-        <v>0.05968438074986884</v>
-      </c>
-      <c r="AB5">
-        <v>0.04160814869627884</v>
-      </c>
-      <c r="AC5">
-        <v>0.01807623205358999</v>
-      </c>
-      <c r="AD5">
-        <v>17514.4</v>
-      </c>
-      <c r="AE5">
-        <v>580.9957678279617</v>
-      </c>
       <c r="AF5">
-        <v>18095.39576782796</v>
+        <v>3325</v>
       </c>
       <c r="AG5">
-        <v>17052.09576782796</v>
+        <v>2387</v>
       </c>
       <c r="AH5">
-        <v>0.6128299747161925</v>
+        <v>0.2556826920119344</v>
       </c>
       <c r="AI5">
-        <v>0.6627428626297355</v>
+        <v>0.2826659865680524</v>
       </c>
       <c r="AJ5">
-        <v>0.5986490207382175</v>
+        <v>0.1978220513160512</v>
       </c>
       <c r="AK5">
-        <v>0.6493440153829344</v>
+        <v>0.2205080831408776</v>
       </c>
       <c r="AL5">
-        <v>1028.6</v>
+        <v>253</v>
       </c>
       <c r="AM5">
-        <v>1028.6</v>
+        <v>253</v>
       </c>
       <c r="AN5">
-        <v>7.716614530554699</v>
+        <v>-14.71238938053097</v>
       </c>
       <c r="AO5">
-        <v>2.048415321796617</v>
+        <v>-1.276679841897233</v>
       </c>
       <c r="AP5">
-        <v>7.512929359751491</v>
+        <v>-10.56194690265487</v>
       </c>
       <c r="AQ5">
-        <v>2.048415321796617</v>
+        <v>-1.276679841897233</v>
       </c>
     </row>
   </sheetData>
